--- a/publication/source_data/costs_xdbit.xlsx
+++ b/publication/source_data/costs_xdbit.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Johannes\GitHub\xDbit_toolbox\publication\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF23BA-B7A8-4B8D-9F58-5ABFD65AD7C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C405F35-980F-4726-B0F2-812787F480D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="xDBiT_costs" sheetId="1" r:id="rId1"/>
+    <sheet name="Print" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Reagent</t>
   </si>
@@ -156,9 +157,6 @@
     <t>µmole</t>
   </si>
   <si>
-    <t>&gt;Calculations</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -171,9 +169,6 @@
     <t>Barcoding</t>
   </si>
   <si>
-    <t>Volumes</t>
-  </si>
-  <si>
     <t>Nextera prep</t>
   </si>
   <si>
@@ -184,6 +179,15 @@
   </si>
   <si>
     <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>&gt;Calculations xDBiT costs</t>
+  </si>
+  <si>
+    <t>Volumes [µL]</t>
+  </si>
+  <si>
+    <t>xDBiT costs</t>
   </si>
 </sst>
 </file>
@@ -215,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -572,11 +576,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -585,33 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,6 +698,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -949,12 +1024,12 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
@@ -976,13 +1051,13 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>31</v>
@@ -1041,11 +1116,11 @@
       </c>
       <c r="B5" s="5">
         <f>T31</f>
-        <v>882.94286166666654</v>
+        <v>891.74263153333334</v>
       </c>
       <c r="C5" s="5">
         <f>R31+S31/9</f>
-        <v>277.24061751851855</v>
+        <v>293.80429565185182</v>
       </c>
       <c r="D5" s="4">
         <v>5000</v>
@@ -1057,11 +1132,11 @@
       </c>
       <c r="B6" s="4">
         <f>B5/B2</f>
-        <v>98.104762407407392</v>
+        <v>99.082514614814812</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ref="C6" si="1">C5/C2</f>
-        <v>277.24061751851855</v>
+        <v>293.80429565185182</v>
       </c>
       <c r="D6" s="4">
         <f>D5/D2</f>
@@ -1074,11 +1149,11 @@
       </c>
       <c r="B7" s="4">
         <f>B5/B4</f>
-        <v>7.1661623380136888E-2</v>
+        <v>7.237583244325406E-2</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ref="C7" si="2">C5/C4</f>
-        <v>0.11089624700740743</v>
+        <v>0.11752171826074073</v>
       </c>
       <c r="D7" s="4">
         <f>D5/D4</f>
@@ -1087,48 +1162,46 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="16" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="41"/>
+      <c r="T11" s="42"/>
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1152,19 +1225,19 @@
       <c r="I12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="10" t="s">
         <v>47</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="O12" s="3" t="s">
@@ -1173,1034 +1246,1034 @@
       <c r="P12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="17" t="s">
-        <v>47</v>
+      <c r="R12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="20">
-        <v>250</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="20">
+      <c r="B13" s="12">
+        <v>500</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="12">
         <f>SUM(B13:F13)</f>
-        <v>250</v>
-      </c>
-      <c r="L13" s="21">
+        <v>500</v>
+      </c>
+      <c r="L13" s="13">
         <f>SUM(G13:J13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="14">
         <f>SUM(B13:J13)</f>
-        <v>250</v>
-      </c>
-      <c r="N13" s="23">
+        <v>500</v>
+      </c>
+      <c r="N13" s="15">
         <v>69.900000000000006</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="13">
         <v>10000</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="14">
         <f>N13/O13</f>
         <v>6.9900000000000006E-3</v>
       </c>
-      <c r="R13" s="20">
-        <f>K13*$Q13</f>
-        <v>1.7475000000000001</v>
-      </c>
-      <c r="S13" s="21">
-        <f>L13*$Q13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="22">
-        <f>M13*$Q13</f>
-        <v>1.7475000000000001</v>
+      <c r="R13" s="12">
+        <f t="shared" ref="R13:R30" si="3">K13*$Q13</f>
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" ref="S13:S30" si="4">L13*$Q13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" ref="T13:T30" si="5">M13*$Q13</f>
+        <v>3.4950000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="20">
-        <v>50</v>
-      </c>
-      <c r="C14" s="21">
+      <c r="B14" s="12">
+        <v>75</v>
+      </c>
+      <c r="C14" s="13">
         <v>19.8</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="13">
         <v>13.13</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="13">
         <v>13.13</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="13">
         <v>18</v>
       </c>
-      <c r="G14" s="21">
-        <v>47.5</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="13">
+        <v>43</v>
+      </c>
+      <c r="H14" s="13">
         <v>22.5</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="20">
-        <f t="shared" ref="K14:K30" si="3">SUM(B14:F14)</f>
-        <v>114.05999999999999</v>
-      </c>
-      <c r="L14" s="21">
-        <f t="shared" ref="L14:L30" si="4">SUM(G14:J14)</f>
-        <v>70</v>
-      </c>
-      <c r="M14" s="22">
-        <f t="shared" ref="M14:M24" si="5">SUM(B14:J14)</f>
-        <v>184.06</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12">
+        <f t="shared" ref="K14:K30" si="6">SUM(B14:F14)</f>
+        <v>139.06</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L30" si="7">SUM(G14:J14)</f>
+        <v>65.5</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" ref="M14:M24" si="8">SUM(B14:J14)</f>
+        <v>204.56</v>
+      </c>
+      <c r="N14" s="15">
         <v>236.8</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="13">
         <v>375</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="22">
-        <f t="shared" ref="Q14:Q24" si="6">N14/O14</f>
+      <c r="Q14" s="14">
+        <f t="shared" ref="Q14:Q24" si="9">N14/O14</f>
         <v>0.63146666666666673</v>
       </c>
-      <c r="R14" s="20">
-        <f>K14*$Q14</f>
-        <v>72.025087999999997</v>
-      </c>
-      <c r="S14" s="21">
-        <f>L14*$Q14</f>
-        <v>44.202666666666673</v>
-      </c>
-      <c r="T14" s="22">
-        <f>M14*$Q14</f>
-        <v>116.22775466666668</v>
+      <c r="R14" s="12">
+        <f t="shared" si="3"/>
+        <v>87.811754666666673</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="4"/>
+        <v>41.361066666666673</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="5"/>
+        <v>129.17282133333336</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13">
         <v>39.6</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
         <v>45</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="20">
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="12">
+        <f t="shared" si="6"/>
+        <v>39.6</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="8"/>
+        <v>84.6</v>
+      </c>
+      <c r="N15" s="15">
+        <v>489.44</v>
+      </c>
+      <c r="O15" s="13">
+        <v>200</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="14">
+        <f t="shared" si="9"/>
+        <v>2.4472</v>
+      </c>
+      <c r="R15" s="12">
         <f t="shared" si="3"/>
+        <v>96.909120000000001</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="4"/>
+        <v>110.124</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="5"/>
+        <v>207.03312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13">
         <v>39.6</v>
       </c>
-      <c r="L15" s="21">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
+        <v>90</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="12">
+        <f t="shared" si="6"/>
+        <v>39.6</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="8"/>
+        <v>129.6</v>
+      </c>
+      <c r="N16" s="15">
+        <v>202.4</v>
+      </c>
+      <c r="O16" s="13">
+        <v>4000</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="14">
+        <f t="shared" si="9"/>
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="3"/>
+        <v>2.0037600000000002</v>
+      </c>
+      <c r="S16" s="13">
         <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="M15" s="22">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="T16" s="14">
         <f t="shared" si="5"/>
-        <v>84.6</v>
-      </c>
-      <c r="N15" s="23">
-        <v>489.44</v>
-      </c>
-      <c r="O15" s="21">
-        <v>200</v>
-      </c>
-      <c r="P15" s="21" t="s">
+        <v>6.55776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
+        <v>13.18</v>
+      </c>
+      <c r="E17" s="13">
+        <v>13.18</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="12">
+        <f t="shared" si="6"/>
+        <v>26.36</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="8"/>
+        <v>26.36</v>
+      </c>
+      <c r="N17" s="15">
+        <v>217.6</v>
+      </c>
+      <c r="O17" s="13">
+        <v>250</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q17" s="14">
+        <f t="shared" si="9"/>
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="R17" s="12">
+        <f t="shared" si="3"/>
+        <v>22.943743999999999</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="14">
+        <f t="shared" si="5"/>
+        <v>22.943743999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="12">
         <f t="shared" si="6"/>
-        <v>2.4472</v>
-      </c>
-      <c r="R15" s="20">
-        <f>K15*$Q15</f>
-        <v>96.909120000000001</v>
-      </c>
-      <c r="S15" s="21">
-        <f>L15*$Q15</f>
-        <v>110.124</v>
-      </c>
-      <c r="T15" s="22">
-        <f>M15*$Q15</f>
-        <v>207.03312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="N18" s="15">
+        <v>235.8</v>
+      </c>
+      <c r="O18" s="13">
+        <v>500</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="14">
+        <f t="shared" si="9"/>
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="R18" s="12">
+        <f t="shared" si="3"/>
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
+        <f t="shared" si="5"/>
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21">
-        <v>39.6</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
-        <v>90</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="20">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="15">
+        <v>277</v>
+      </c>
+      <c r="O19" s="13">
+        <v>500</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="14">
+        <f t="shared" si="9"/>
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="R19" s="12">
         <f t="shared" si="3"/>
-        <v>39.6</v>
-      </c>
-      <c r="L16" s="21">
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="S19" s="13">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="T19" s="14">
         <f t="shared" si="5"/>
-        <v>129.6</v>
-      </c>
-      <c r="N16" s="23">
-        <v>202.4</v>
-      </c>
-      <c r="O16" s="21">
-        <v>4000</v>
-      </c>
-      <c r="P16" s="21" t="s">
+        <v>2.2160000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="N20" s="15">
+        <v>267</v>
+      </c>
+      <c r="O20" s="13">
+        <v>500</v>
+      </c>
+      <c r="P20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q20" s="14">
+        <f t="shared" si="9"/>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="3"/>
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="S20" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="14">
+        <f t="shared" si="5"/>
+        <v>0.85440000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13">
+        <v>24</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="12">
         <f t="shared" si="6"/>
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="R16" s="20">
-        <f>K16*$Q16</f>
-        <v>2.0037600000000002</v>
-      </c>
-      <c r="S16" s="21">
-        <f>L16*$Q16</f>
-        <v>4.5540000000000003</v>
-      </c>
-      <c r="T16" s="22">
-        <f>M16*$Q16</f>
-        <v>6.55776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21">
-        <v>13.18</v>
-      </c>
-      <c r="E17" s="21">
-        <v>13.18</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="20">
+        <v>26</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="N21" s="15">
+        <v>90.25</v>
+      </c>
+      <c r="O21" s="13">
+        <v>10000</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="14">
+        <f t="shared" si="9"/>
+        <v>9.025E-3</v>
+      </c>
+      <c r="R21" s="12">
         <f t="shared" si="3"/>
-        <v>26.36</v>
-      </c>
-      <c r="L17" s="21">
+        <v>0.23465</v>
+      </c>
+      <c r="S21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="22">
+      <c r="T21" s="14">
         <f t="shared" si="5"/>
-        <v>26.36</v>
-      </c>
-      <c r="N17" s="23">
-        <v>217.6</v>
-      </c>
-      <c r="O17" s="21">
-        <v>250</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="22">
+        <v>0.23465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="12">
         <f t="shared" si="6"/>
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="R17" s="20">
-        <f>K17*$Q17</f>
-        <v>22.943743999999999</v>
-      </c>
-      <c r="S17" s="21">
-        <f>L17*$Q17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="22">
-        <f>M17*$Q17</f>
-        <v>22.943743999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="20">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N18" s="23">
-        <v>235.8</v>
-      </c>
-      <c r="O18" s="21">
-        <v>500</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="22">
-        <f t="shared" si="6"/>
-        <v>0.47160000000000002</v>
-      </c>
-      <c r="R18" s="20">
-        <f>K18*$Q18</f>
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="S18" s="21">
-        <f>L18*$Q18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="22">
-        <f>M18*$Q18</f>
-        <v>0.94320000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <v>4</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="20">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L19" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="N19" s="23">
-        <v>277</v>
-      </c>
-      <c r="O19" s="21">
-        <v>500</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="22">
-        <f t="shared" si="6"/>
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="R19" s="20">
-        <f>K19*$Q19</f>
-        <v>2.2160000000000002</v>
-      </c>
-      <c r="S19" s="21">
-        <f>L19*$Q19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="22">
-        <f>M19*$Q19</f>
-        <v>2.2160000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="20">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="L20" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <f t="shared" si="5"/>
-        <v>1.6</v>
-      </c>
-      <c r="N20" s="23">
-        <v>267</v>
-      </c>
-      <c r="O20" s="21">
-        <v>500</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="22">
-        <f t="shared" si="6"/>
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="R20" s="20">
-        <f>K20*$Q20</f>
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="S20" s="21">
-        <f>L20*$Q20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="22">
-        <f>M20*$Q20</f>
-        <v>0.85440000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21">
-        <v>24</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="20">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="L21" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="N21" s="23">
-        <v>90.25</v>
-      </c>
-      <c r="O21" s="21">
-        <v>10000</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="22">
-        <f t="shared" si="6"/>
-        <v>9.025E-3</v>
-      </c>
-      <c r="R21" s="20">
-        <f>K21*$Q21</f>
-        <v>0.23465</v>
-      </c>
-      <c r="S21" s="21">
-        <f>L21*$Q21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="22">
-        <f>M21*$Q21</f>
-        <v>0.23465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21">
         <v>1.8E-3</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="20">
-        <f t="shared" si="3"/>
+      <c r="L22" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="8"/>
         <v>1.8E-3</v>
       </c>
-      <c r="L22" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="22">
-        <f t="shared" si="5"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="N22" s="15">
         <v>1000</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O22" s="13">
         <f>48*0.05</f>
         <v>2.4000000000000004</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="14">
+        <f t="shared" si="9"/>
+        <v>416.66666666666663</v>
+      </c>
+      <c r="R22" s="12">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="S22" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <f t="shared" si="5"/>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="12">
         <f t="shared" si="6"/>
-        <v>416.66666666666663</v>
-      </c>
-      <c r="R22" s="20">
-        <f>K22*$Q22</f>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="S22" s="21">
-        <f>L22*$Q22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="22">
-        <f>M22*$Q22</f>
-        <v>0.74999999999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="20">
-        <f t="shared" si="3"/>
+      <c r="L23" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="8"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L23" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
-        <f t="shared" si="5"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N23" s="23">
+      <c r="N23" s="15">
         <v>2047</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O23" s="13">
         <f>96*0.05</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="14">
+        <f t="shared" si="9"/>
+        <v>426.45833333333326</v>
+      </c>
+      <c r="R23" s="12">
+        <f t="shared" si="3"/>
+        <v>0.38381249999999995</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <f t="shared" si="5"/>
+        <v>0.38381249999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="12">
         <f t="shared" si="6"/>
-        <v>426.45833333333326</v>
-      </c>
-      <c r="R23" s="20">
-        <f>K23*$Q23</f>
-        <v>0.38381249999999995</v>
-      </c>
-      <c r="S23" s="21">
-        <f>L23*$Q23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="22">
-        <f>M23*$Q23</f>
-        <v>0.38381249999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="20">
-        <f t="shared" si="3"/>
+      <c r="L24" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="8"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="L24" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <f t="shared" si="5"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="N24" s="23">
+      <c r="N24" s="15">
         <v>2755</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O24" s="13">
         <f>96*0.05</f>
         <v>4.8000000000000007</v>
       </c>
-      <c r="P24" s="21" t="s">
+      <c r="P24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="Q24" s="14">
+        <f t="shared" si="9"/>
+        <v>573.95833333333326</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="3"/>
+        <v>0.51656249999999992</v>
+      </c>
+      <c r="S24" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <f t="shared" si="5"/>
+        <v>0.51656249999999992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
+        <v>80</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="12">
         <f t="shared" si="6"/>
-        <v>573.95833333333326</v>
-      </c>
-      <c r="R24" s="20">
-        <f>K24*$Q24</f>
-        <v>0.51656249999999992</v>
-      </c>
-      <c r="S24" s="21">
-        <f>L24*$Q24</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="22">
-        <f>M24*$Q24</f>
-        <v>0.51656249999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="20">
+      <c r="M25" s="14">
+        <f t="shared" ref="M25:M30" si="10">SUM(B25:J25)</f>
+        <v>80</v>
+      </c>
+      <c r="N25" s="15">
+        <v>64</v>
+      </c>
+      <c r="O25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" ref="Q25:Q30" si="11">N25/O25</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="R25" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="21">
+      <c r="S25" s="13">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="M25" s="22">
-        <f t="shared" ref="M25:M30" si="7">SUM(B25:J25)</f>
-        <v>80</v>
-      </c>
-      <c r="N25" s="23">
-        <v>64</v>
-      </c>
-      <c r="O25" s="21">
-        <v>2000</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="22">
-        <f>N25/O25</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="R25" s="20">
-        <f>K25*$Q25</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <f>L25*$Q25</f>
         <v>2.56</v>
       </c>
-      <c r="T25" s="22">
-        <f>M25*$Q25</f>
+      <c r="T25" s="14">
+        <f t="shared" si="5"/>
         <v>2.56</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
         <v>396</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <f t="shared" si="4"/>
-        <v>396</v>
-      </c>
-      <c r="M26" s="22">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
         <f t="shared" si="7"/>
         <v>396</v>
       </c>
-      <c r="N26" s="23">
+      <c r="M26" s="14">
+        <f t="shared" si="10"/>
+        <v>396</v>
+      </c>
+      <c r="N26" s="15">
         <v>484.12</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="13">
         <v>2000</v>
       </c>
-      <c r="P26" s="21" t="s">
+      <c r="P26" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="22">
-        <f>N26/O26</f>
+      <c r="Q26" s="14">
+        <f t="shared" si="11"/>
         <v>0.24206</v>
       </c>
-      <c r="R26" s="20">
-        <f>K26*$Q26</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <f>L26*$Q26</f>
+      <c r="R26" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
+        <f t="shared" si="4"/>
         <v>95.855760000000004</v>
       </c>
-      <c r="T26" s="22">
-        <f>M26*$Q26</f>
+      <c r="T26" s="14">
+        <f t="shared" si="5"/>
         <v>95.855760000000004</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21">
-        <v>1149.5</v>
-      </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="20">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <v>1034.55</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <f t="shared" si="7"/>
+        <v>1034.55</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="10"/>
+        <v>1034.55</v>
+      </c>
+      <c r="N27" s="15">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="O27" s="13">
+        <v>6250</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="11"/>
+        <v>5.1263999999999997E-2</v>
+      </c>
+      <c r="R27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="21">
+      <c r="S27" s="13">
         <f t="shared" si="4"/>
-        <v>1149.5</v>
-      </c>
-      <c r="M27" s="22">
-        <f t="shared" si="7"/>
-        <v>1149.5</v>
-      </c>
-      <c r="N27" s="23">
-        <v>320.39999999999998</v>
-      </c>
-      <c r="O27" s="21">
-        <v>6250</v>
-      </c>
-      <c r="P27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="22">
-        <f>N27/O27</f>
-        <v>5.1263999999999997E-2</v>
-      </c>
-      <c r="R27" s="20">
-        <f>K27*$Q27</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <f>L27*$Q27</f>
-        <v>58.927968</v>
-      </c>
-      <c r="T27" s="22">
-        <f>M27*$Q27</f>
-        <v>58.927968</v>
+        <v>53.035171199999994</v>
+      </c>
+      <c r="T27" s="14">
+        <f t="shared" si="5"/>
+        <v>53.035171199999994</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
         <v>128</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="14">
         <f>28*9</f>
         <v>252</v>
       </c>
-      <c r="K28" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <f t="shared" si="4"/>
-        <v>380</v>
-      </c>
-      <c r="M28" s="22">
+      <c r="K28" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
         <f t="shared" si="7"/>
         <v>380</v>
       </c>
-      <c r="N28" s="23">
+      <c r="M28" s="14">
+        <f t="shared" si="10"/>
+        <v>380</v>
+      </c>
+      <c r="N28" s="15">
         <v>245.88</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="13">
         <v>5000</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="22">
-        <f>N28/O28</f>
+      <c r="Q28" s="14">
+        <f t="shared" si="11"/>
         <v>4.9175999999999997E-2</v>
       </c>
-      <c r="R28" s="20">
-        <f>K28*$Q28</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <f>L28*$Q28</f>
+      <c r="R28" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f t="shared" si="4"/>
         <v>18.686879999999999</v>
       </c>
-      <c r="T28" s="22">
-        <f>M28*$Q28</f>
+      <c r="T28" s="14">
+        <f t="shared" si="5"/>
         <v>18.686879999999999</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="14">
         <v>9</v>
       </c>
-      <c r="K29" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="M29" s="22">
+      <c r="K29" s="12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="N29" s="23">
+      <c r="M29" s="14">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N29" s="15">
         <v>909.28</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="13">
         <v>24</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="22">
-        <f>N29/O29</f>
+      <c r="Q29" s="14">
+        <f t="shared" si="11"/>
         <v>37.886666666666663</v>
       </c>
-      <c r="R29" s="20">
-        <f>K29*$Q29</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <f>L29*$Q29</f>
+      <c r="R29" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="4"/>
         <v>340.97999999999996</v>
       </c>
-      <c r="T29" s="22">
-        <f>M29*$Q29</f>
+      <c r="T29" s="14">
+        <f t="shared" si="5"/>
         <v>340.97999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17">
         <v>22.5</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
-      </c>
-      <c r="M30" s="26">
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="17">
         <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
-      <c r="N30" s="27">
+      <c r="M30" s="18">
+        <f t="shared" si="10"/>
+        <v>22.5</v>
+      </c>
+      <c r="N30" s="19">
         <v>49.1</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="17">
         <v>200</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="26">
-        <f>N30/O30</f>
+      <c r="Q30" s="18">
+        <f t="shared" si="11"/>
         <v>0.2455</v>
       </c>
-      <c r="R30" s="28">
-        <f>K30*$Q30</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="29">
-        <f>L30*$Q30</f>
+      <c r="R30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="21">
+        <f t="shared" si="4"/>
         <v>5.5237499999999997</v>
       </c>
-      <c r="T30" s="30">
-        <f>M30*$Q30</f>
+      <c r="T30" s="22">
+        <f t="shared" si="5"/>
         <v>5.5237499999999997</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32">
+      <c r="A31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24">
         <f>SUM(R13:R30)</f>
-        <v>201.52783700000001</v>
-      </c>
-      <c r="S31" s="33">
-        <f t="shared" ref="S31:T31" si="8">SUM(S13:S30)</f>
-        <v>681.41502466666657</v>
-      </c>
-      <c r="T31" s="34">
-        <f t="shared" si="8"/>
-        <v>882.94286166666654</v>
+        <v>219.06200366666667</v>
+      </c>
+      <c r="S31" s="25">
+        <f t="shared" ref="S31:T31" si="12">SUM(S13:S30)</f>
+        <v>672.68062786666655</v>
+      </c>
+      <c r="T31" s="26">
+        <f t="shared" si="12"/>
+        <v>891.74263153333334</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2215,4 +2288,633 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3511DB6-462B-4F00-A359-ECAA71B18E7A}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="43" t="str">
+        <f>xDBiT_costs!K11</f>
+        <v>Volumes [µL]</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="44" t="str">
+        <f>xDBiT_costs!R11</f>
+        <v>Experimental costs [€]</v>
+      </c>
+      <c r="F1" s="45"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="str">
+        <f>xDBiT_costs!A12</f>
+        <v>Reagent</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f>xDBiT_costs!K12</f>
+        <v>Barcoding</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>xDBiT_costs!L12</f>
+        <v>Lib prep</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>xDBiT_costs!M12</f>
+        <v>Total</v>
+      </c>
+      <c r="E2" s="35" t="str">
+        <f>xDBiT_costs!R12</f>
+        <v>Barcoding</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>xDBiT_costs!S12</f>
+        <v>Lib prep</v>
+      </c>
+      <c r="G2" s="36" t="str">
+        <f>xDBiT_costs!T12</f>
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>xDBiT_costs!A13</f>
+        <v>RVC</v>
+      </c>
+      <c r="B3" s="12">
+        <f>xDBiT_costs!K13</f>
+        <v>500</v>
+      </c>
+      <c r="C3" s="13">
+        <f>xDBiT_costs!L13</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <f>xDBiT_costs!M13</f>
+        <v>500</v>
+      </c>
+      <c r="E3" s="27">
+        <f>xDBiT_costs!R13</f>
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <f>xDBiT_costs!S13</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="28">
+        <f>xDBiT_costs!T13</f>
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="str">
+        <f>xDBiT_costs!A14</f>
+        <v>NEB RI</v>
+      </c>
+      <c r="B4" s="12">
+        <f>xDBiT_costs!K14</f>
+        <v>139.06</v>
+      </c>
+      <c r="C4" s="13">
+        <f>xDBiT_costs!L14</f>
+        <v>65.5</v>
+      </c>
+      <c r="D4" s="14">
+        <f>xDBiT_costs!M14</f>
+        <v>204.56</v>
+      </c>
+      <c r="E4" s="27">
+        <f>xDBiT_costs!R14</f>
+        <v>87.811754666666673</v>
+      </c>
+      <c r="F4" s="4">
+        <f>xDBiT_costs!S14</f>
+        <v>41.361066666666673</v>
+      </c>
+      <c r="G4" s="28">
+        <f>xDBiT_costs!T14</f>
+        <v>129.17282133333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="str">
+        <f>xDBiT_costs!A15</f>
+        <v>Maxima H RT</v>
+      </c>
+      <c r="B5" s="12">
+        <f>xDBiT_costs!K15</f>
+        <v>39.6</v>
+      </c>
+      <c r="C5" s="13">
+        <f>xDBiT_costs!L15</f>
+        <v>45</v>
+      </c>
+      <c r="D5" s="14">
+        <f>xDBiT_costs!M15</f>
+        <v>84.6</v>
+      </c>
+      <c r="E5" s="27">
+        <f>xDBiT_costs!R15</f>
+        <v>96.909120000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <f>xDBiT_costs!S15</f>
+        <v>110.124</v>
+      </c>
+      <c r="G5" s="28">
+        <f>xDBiT_costs!T15</f>
+        <v>207.03312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="str">
+        <f>xDBiT_costs!A16</f>
+        <v>dNTPs</v>
+      </c>
+      <c r="B6" s="12">
+        <f>xDBiT_costs!K16</f>
+        <v>39.6</v>
+      </c>
+      <c r="C6" s="13">
+        <f>xDBiT_costs!L16</f>
+        <v>90</v>
+      </c>
+      <c r="D6" s="14">
+        <f>xDBiT_costs!M16</f>
+        <v>129.6</v>
+      </c>
+      <c r="E6" s="27">
+        <f>xDBiT_costs!R16</f>
+        <v>2.0037600000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <f>xDBiT_costs!S16</f>
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="G6" s="28">
+        <f>xDBiT_costs!T16</f>
+        <v>6.55776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="str">
+        <f>xDBiT_costs!A17</f>
+        <v>T4 Ligase</v>
+      </c>
+      <c r="B7" s="12">
+        <f>xDBiT_costs!K17</f>
+        <v>26.36</v>
+      </c>
+      <c r="C7" s="13">
+        <f>xDBiT_costs!L17</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <f>xDBiT_costs!M17</f>
+        <v>26.36</v>
+      </c>
+      <c r="E7" s="27">
+        <f>xDBiT_costs!R17</f>
+        <v>22.943743999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <f>xDBiT_costs!S17</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <f>xDBiT_costs!T17</f>
+        <v>22.943743999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="str">
+        <f>xDBiT_costs!A18</f>
+        <v>anti-BSA ab</v>
+      </c>
+      <c r="B8" s="12">
+        <f>xDBiT_costs!K18</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="13">
+        <f>xDBiT_costs!L18</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <f>xDBiT_costs!M18</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="27">
+        <f>xDBiT_costs!R18</f>
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="F8" s="4">
+        <f>xDBiT_costs!S18</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <f>xDBiT_costs!T18</f>
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="str">
+        <f>xDBiT_costs!A19</f>
+        <v>Phalloidin-ATTO488</v>
+      </c>
+      <c r="B9" s="12">
+        <f>xDBiT_costs!K19</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="13">
+        <f>xDBiT_costs!L19</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <f>xDBiT_costs!M19</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="27">
+        <f>xDBiT_costs!R19</f>
+        <v>2.2160000000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <f>xDBiT_costs!S19</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <f>xDBiT_costs!T19</f>
+        <v>2.2160000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="str">
+        <f>xDBiT_costs!A20</f>
+        <v>donkey anti-rabbit AF555</v>
+      </c>
+      <c r="B10" s="12">
+        <f>xDBiT_costs!K20</f>
+        <v>1.6</v>
+      </c>
+      <c r="C10" s="13">
+        <f>xDBiT_costs!L20</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <f>xDBiT_costs!M20</f>
+        <v>1.6</v>
+      </c>
+      <c r="E10" s="27">
+        <f>xDBiT_costs!R20</f>
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="F10" s="4">
+        <f>xDBiT_costs!S20</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <f>xDBiT_costs!T20</f>
+        <v>0.85440000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="str">
+        <f>xDBiT_costs!A21</f>
+        <v>donkey serum</v>
+      </c>
+      <c r="B11" s="12">
+        <f>xDBiT_costs!K21</f>
+        <v>26</v>
+      </c>
+      <c r="C11" s="13">
+        <f>xDBiT_costs!L21</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <f>xDBiT_costs!M21</f>
+        <v>26</v>
+      </c>
+      <c r="E11" s="27">
+        <f>xDBiT_costs!R21</f>
+        <v>0.23465</v>
+      </c>
+      <c r="F11" s="4">
+        <f>xDBiT_costs!S21</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <f>xDBiT_costs!T21</f>
+        <v>0.23465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="str">
+        <f>xDBiT_costs!A22</f>
+        <v>Round 1 oligos</v>
+      </c>
+      <c r="B12" s="12">
+        <f>xDBiT_costs!K22</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="C12" s="13">
+        <f>xDBiT_costs!L22</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <f>xDBiT_costs!M22</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="E12" s="27">
+        <f>xDBiT_costs!R22</f>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="F12" s="4">
+        <f>xDBiT_costs!S22</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <f>xDBiT_costs!T22</f>
+        <v>0.74999999999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="str">
+        <f>xDBiT_costs!A23</f>
+        <v>Round 2 oligos</v>
+      </c>
+      <c r="B13" s="12">
+        <f>xDBiT_costs!K23</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C13" s="13">
+        <f>xDBiT_costs!L23</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <f>xDBiT_costs!M23</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E13" s="27">
+        <f>xDBiT_costs!R23</f>
+        <v>0.38381249999999995</v>
+      </c>
+      <c r="F13" s="4">
+        <f>xDBiT_costs!S23</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <f>xDBiT_costs!T23</f>
+        <v>0.38381249999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="str">
+        <f>xDBiT_costs!A24</f>
+        <v>Round 3 oligos</v>
+      </c>
+      <c r="B14" s="12">
+        <f>xDBiT_costs!K24</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C14" s="13">
+        <f>xDBiT_costs!L24</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f>xDBiT_costs!M24</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E14" s="27">
+        <f>xDBiT_costs!R24</f>
+        <v>0.51656249999999992</v>
+      </c>
+      <c r="F14" s="4">
+        <f>xDBiT_costs!S24</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <f>xDBiT_costs!T24</f>
+        <v>0.51656249999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="str">
+        <f>xDBiT_costs!A25</f>
+        <v>Proteinase K</v>
+      </c>
+      <c r="B15" s="12">
+        <f>xDBiT_costs!K25</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="13">
+        <f>xDBiT_costs!L25</f>
+        <v>80</v>
+      </c>
+      <c r="D15" s="14">
+        <f>xDBiT_costs!M25</f>
+        <v>80</v>
+      </c>
+      <c r="E15" s="27">
+        <f>xDBiT_costs!R25</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>xDBiT_costs!S25</f>
+        <v>2.56</v>
+      </c>
+      <c r="G15" s="28">
+        <f>xDBiT_costs!T25</f>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="str">
+        <f>xDBiT_costs!A26</f>
+        <v>Dynabeads MyOne</v>
+      </c>
+      <c r="B16" s="12">
+        <f>xDBiT_costs!K26</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="13">
+        <f>xDBiT_costs!L26</f>
+        <v>396</v>
+      </c>
+      <c r="D16" s="14">
+        <f>xDBiT_costs!M26</f>
+        <v>396</v>
+      </c>
+      <c r="E16" s="27">
+        <f>xDBiT_costs!R26</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>xDBiT_costs!S26</f>
+        <v>95.855760000000004</v>
+      </c>
+      <c r="G16" s="28">
+        <f>xDBiT_costs!T26</f>
+        <v>95.855760000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="str">
+        <f>xDBiT_costs!A27</f>
+        <v>Kapa Hifi 2x</v>
+      </c>
+      <c r="B17" s="12">
+        <f>xDBiT_costs!K27</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <f>xDBiT_costs!L27</f>
+        <v>1034.55</v>
+      </c>
+      <c r="D17" s="14">
+        <f>xDBiT_costs!M27</f>
+        <v>1034.55</v>
+      </c>
+      <c r="E17" s="27">
+        <f>xDBiT_costs!R27</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>xDBiT_costs!S27</f>
+        <v>53.035171199999994</v>
+      </c>
+      <c r="G17" s="28">
+        <f>xDBiT_costs!T27</f>
+        <v>53.035171199999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="str">
+        <f>xDBiT_costs!A28</f>
+        <v>SPRI beads</v>
+      </c>
+      <c r="B18" s="12">
+        <f>xDBiT_costs!K28</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <f>xDBiT_costs!L28</f>
+        <v>380</v>
+      </c>
+      <c r="D18" s="14">
+        <f>xDBiT_costs!M28</f>
+        <v>380</v>
+      </c>
+      <c r="E18" s="27">
+        <f>xDBiT_costs!R28</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <f>xDBiT_costs!S28</f>
+        <v>18.686879999999999</v>
+      </c>
+      <c r="G18" s="28">
+        <f>xDBiT_costs!T28</f>
+        <v>18.686879999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="str">
+        <f>xDBiT_costs!A29</f>
+        <v>Nextera XT kit</v>
+      </c>
+      <c r="B19" s="12">
+        <f>xDBiT_costs!K29</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="13">
+        <f>xDBiT_costs!L29</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="14">
+        <f>xDBiT_costs!M29</f>
+        <v>9</v>
+      </c>
+      <c r="E19" s="27">
+        <f>xDBiT_costs!R29</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f>xDBiT_costs!S29</f>
+        <v>340.97999999999996</v>
+      </c>
+      <c r="G19" s="28">
+        <f>xDBiT_costs!T29</f>
+        <v>340.97999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="str">
+        <f>xDBiT_costs!A30</f>
+        <v>TSO</v>
+      </c>
+      <c r="B20" s="16">
+        <f>xDBiT_costs!K30</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <f>xDBiT_costs!L30</f>
+        <v>22.5</v>
+      </c>
+      <c r="D20" s="18">
+        <f>xDBiT_costs!M30</f>
+        <v>22.5</v>
+      </c>
+      <c r="E20" s="32">
+        <f>xDBiT_costs!R30</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <f>xDBiT_costs!S30</f>
+        <v>5.5237499999999997</v>
+      </c>
+      <c r="G20" s="34">
+        <f>xDBiT_costs!T30</f>
+        <v>5.5237499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>xDBiT_costs!A31</f>
+        <v>Total xDBiT procedure</v>
+      </c>
+      <c r="E21" s="29">
+        <f>xDBiT_costs!R31</f>
+        <v>219.06200366666667</v>
+      </c>
+      <c r="F21" s="30">
+        <f>xDBiT_costs!S31</f>
+        <v>672.68062786666655</v>
+      </c>
+      <c r="G21" s="31">
+        <f>xDBiT_costs!T31</f>
+        <v>891.74263153333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>